--- a/SuggestedRole.xlsx
+++ b/SuggestedRole.xlsx
@@ -12,18 +12,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
   <si>
     <t>User_1</t>
   </si>
   <si>
+    <t>Role_3</t>
+  </si>
+  <si>
     <t>User_2</t>
+  </si>
+  <si>
+    <t>Role_1</t>
   </si>
   <si>
     <t>User_3</t>
   </si>
   <si>
     <t>User_4</t>
+  </si>
+  <si>
+    <t>Role_4</t>
   </si>
 </sst>
 </file>
@@ -68,7 +83,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -76,22 +91,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
